--- a/src/main/resources/testData/loginpage.xlsx
+++ b/src/main/resources/testData/loginpage.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
-  <si>
-    <t>password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>admin@yourstore.com</t>
   </si>
@@ -25,32 +22,41 @@
     <t>admin</t>
   </si>
   <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>admin456</t>
-  </si>
-  <si>
-    <t>mn@yourstore.com</t>
-  </si>
-  <si>
-    <t>zvbjjhh</t>
-  </si>
-  <si>
-    <t>Email</t>
+    <t xml:space="preserve">     EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     PASSWORD</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>admin@yours.com</t>
+  </si>
+  <si>
+    <t>admin78888</t>
+  </si>
+  <si>
+    <t>dhhr47777</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -61,18 +67,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,12 +86,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -397,105 +397,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2" display="avc@yourstore.com"/>
-    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>